--- a/src/main/resources/output.xlsx
+++ b/src/main/resources/output.xlsx
@@ -12,96 +12,93 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
-  <si>
-    <t>Cristobal Hammes</t>
-  </si>
-  <si>
-    <t>cashier</t>
-  </si>
-  <si>
-    <t>Djibouti</t>
-  </si>
-  <si>
-    <t>Lacy Hoppe</t>
-  </si>
-  <si>
-    <t>musician</t>
-  </si>
-  <si>
-    <t>Chile</t>
-  </si>
-  <si>
-    <t>Loralee Howell</t>
-  </si>
-  <si>
-    <t>plumber</t>
-  </si>
-  <si>
-    <t>Gabon</t>
-  </si>
-  <si>
-    <t>Polly Torp IV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+  <si>
+    <t>Justin Senger DVM</t>
+  </si>
+  <si>
+    <t>bookkeeper</t>
+  </si>
+  <si>
+    <t>New Zealand</t>
+  </si>
+  <si>
+    <t>Jon Bayer Sr.</t>
+  </si>
+  <si>
+    <t>businessman</t>
+  </si>
+  <si>
+    <t>Montenegro</t>
+  </si>
+  <si>
+    <t>Meaghan White IV</t>
+  </si>
+  <si>
+    <t>postman</t>
+  </si>
+  <si>
+    <t>Cayman Islands</t>
+  </si>
+  <si>
+    <t>Caprice O'Keefe</t>
+  </si>
+  <si>
+    <t>agriculturist</t>
+  </si>
+  <si>
+    <t>Colombia</t>
+  </si>
+  <si>
+    <t>Bret Ritchie</t>
+  </si>
+  <si>
+    <t>teacher</t>
+  </si>
+  <si>
+    <t>Dominican Republic</t>
+  </si>
+  <si>
+    <t>Colin Davis V</t>
+  </si>
+  <si>
+    <t>farmer</t>
+  </si>
+  <si>
+    <t>Ukraine</t>
+  </si>
+  <si>
+    <t>Buck Reilly</t>
+  </si>
+  <si>
+    <t>painter</t>
+  </si>
+  <si>
+    <t>Lesotho</t>
+  </si>
+  <si>
+    <t>Silvana Connelly PhD</t>
   </si>
   <si>
     <t>photographer</t>
   </si>
   <si>
-    <t>Rwanda</t>
-  </si>
-  <si>
-    <t>Misty Weissnat</t>
-  </si>
-  <si>
-    <t>philosopher</t>
-  </si>
-  <si>
-    <t>Guernsey</t>
-  </si>
-  <si>
-    <t>Michale Rice III</t>
-  </si>
-  <si>
-    <t>farmer</t>
-  </si>
-  <si>
-    <t>Albania</t>
-  </si>
-  <si>
-    <t>Rosita Parker</t>
-  </si>
-  <si>
-    <t>programmer</t>
-  </si>
-  <si>
-    <t>Lesotho</t>
-  </si>
-  <si>
-    <t>Val Legros</t>
-  </si>
-  <si>
-    <t>nurse</t>
-  </si>
-  <si>
-    <t>Greenland</t>
-  </si>
-  <si>
-    <t>Anjelica Lebsack</t>
-  </si>
-  <si>
-    <t>optician</t>
-  </si>
-  <si>
-    <t>Burkina Faso</t>
-  </si>
-  <si>
-    <t>Marlin Murphy</t>
-  </si>
-  <si>
-    <t>attorney</t>
-  </si>
-  <si>
-    <t>United States of America</t>
+    <t>Seychelles</t>
+  </si>
+  <si>
+    <t>Cecile Shields</t>
+  </si>
+  <si>
+    <t>actress</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>Elbert O'Keefe</t>
+  </si>
+  <si>
+    <t>Heard Island and McDonald Islands</t>
   </si>
 </sst>
 </file>
@@ -152,9 +149,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="17.34375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="19.69921875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="13.43359375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="23.29296875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="32.45703125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -261,10 +258,10 @@
         <v>27</v>
       </c>
       <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
         <v>28</v>
-      </c>
-      <c r="C10" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/output.xlsx
+++ b/src/main/resources/output.xlsx
@@ -12,93 +12,96 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
-  <si>
-    <t>Justin Senger DVM</t>
-  </si>
-  <si>
-    <t>bookkeeper</t>
-  </si>
-  <si>
-    <t>New Zealand</t>
-  </si>
-  <si>
-    <t>Jon Bayer Sr.</t>
-  </si>
-  <si>
-    <t>businessman</t>
-  </si>
-  <si>
-    <t>Montenegro</t>
-  </si>
-  <si>
-    <t>Meaghan White IV</t>
-  </si>
-  <si>
-    <t>postman</t>
-  </si>
-  <si>
-    <t>Cayman Islands</t>
-  </si>
-  <si>
-    <t>Caprice O'Keefe</t>
-  </si>
-  <si>
-    <t>agriculturist</t>
-  </si>
-  <si>
-    <t>Colombia</t>
-  </si>
-  <si>
-    <t>Bret Ritchie</t>
-  </si>
-  <si>
-    <t>teacher</t>
-  </si>
-  <si>
-    <t>Dominican Republic</t>
-  </si>
-  <si>
-    <t>Colin Davis V</t>
-  </si>
-  <si>
-    <t>farmer</t>
-  </si>
-  <si>
-    <t>Ukraine</t>
-  </si>
-  <si>
-    <t>Buck Reilly</t>
-  </si>
-  <si>
-    <t>painter</t>
-  </si>
-  <si>
-    <t>Lesotho</t>
-  </si>
-  <si>
-    <t>Silvana Connelly PhD</t>
-  </si>
-  <si>
-    <t>photographer</t>
-  </si>
-  <si>
-    <t>Seychelles</t>
-  </si>
-  <si>
-    <t>Cecile Shields</t>
-  </si>
-  <si>
-    <t>actress</t>
-  </si>
-  <si>
-    <t>Netherlands</t>
-  </si>
-  <si>
-    <t>Elbert O'Keefe</t>
-  </si>
-  <si>
-    <t>Heard Island and McDonald Islands</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+  <si>
+    <t>Steve Schmeler</t>
+  </si>
+  <si>
+    <t>musician</t>
+  </si>
+  <si>
+    <t>Netherlands Antilles</t>
+  </si>
+  <si>
+    <t>Olen Greenfelder</t>
+  </si>
+  <si>
+    <t>gardener</t>
+  </si>
+  <si>
+    <t>Botswana</t>
+  </si>
+  <si>
+    <t>Conrad O'Hara</t>
+  </si>
+  <si>
+    <t>electrician</t>
+  </si>
+  <si>
+    <t>Uruguay</t>
+  </si>
+  <si>
+    <t>Dorris Lemke</t>
+  </si>
+  <si>
+    <t>doctor</t>
+  </si>
+  <si>
+    <t>Azerbaijan</t>
+  </si>
+  <si>
+    <t>Mrs. Gabriele Morissette</t>
+  </si>
+  <si>
+    <t>chef</t>
+  </si>
+  <si>
+    <t>Lao People's Democratic Republic</t>
+  </si>
+  <si>
+    <t>Hermine Emard DDS</t>
+  </si>
+  <si>
+    <t>lawyer</t>
+  </si>
+  <si>
+    <t>Belgium</t>
+  </si>
+  <si>
+    <t>Noble Wolf</t>
+  </si>
+  <si>
+    <t>human resources</t>
+  </si>
+  <si>
+    <t>Belize</t>
+  </si>
+  <si>
+    <t>Codi Schoen</t>
+  </si>
+  <si>
+    <t>dentist</t>
+  </si>
+  <si>
+    <t>Antarctica (the territory South of 60 deg S)</t>
+  </si>
+  <si>
+    <t>Ozella Dietrich I</t>
+  </si>
+  <si>
+    <t>hairdresser</t>
+  </si>
+  <si>
+    <t>El Salvador</t>
+  </si>
+  <si>
+    <t>Rolando Bradtke DVM</t>
+  </si>
+  <si>
+    <t>waiter</t>
+  </si>
+  <si>
+    <t>Greenland</t>
   </si>
 </sst>
 </file>
@@ -149,9 +152,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="19.69921875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="13.43359375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="32.45703125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="23.35546875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="16.50390625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="39.08984375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -258,10 +261,10 @@
         <v>27</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
